--- a/public/template_telaah_dokumen.xlsx
+++ b/public/template_telaah_dokumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A94DC-A223-4952-AE31-D24CF4D864AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503F512D-9C4C-48E7-9F72-42097E575442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{D087BDC3-BE76-4C30-B0D8-13880E915C35}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="272">
   <si>
     <t>instrumen_id</t>
   </si>
@@ -444,33 +444,6 @@
     <t>Analisis kerjasama dan dukungan IDUKA</t>
   </si>
   <si>
-    <t xml:space="preserve">  Dokumen kurikulum secara utuh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Dokumen hasil penyelarasan dengan IDUKA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Bukti keterlibatan IDUKA dalam pengembangan kurikulum. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Silabus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Program tahunan </t>
-  </si>
-  <si>
-    <t>  Program semester</t>
-  </si>
-  <si>
-    <t>  Kalender akademik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  RPP </t>
-  </si>
-  <si>
-    <t>  Dokumen pengembangan kurikulum seperti notulen rapat, SK Tim, absensi kegiatan, dsb.</t>
-  </si>
-  <si>
     <t>Kegiatan dan program guru dalam melaksanakan pembelajaran sesuai RPP dan hasil telaah yang dilakukan</t>
   </si>
   <si>
@@ -495,21 +468,6 @@
     <t>Kepuasan siswa terhadap kecukupan dan kesesuaian peralatan praktik</t>
   </si>
   <si>
-    <t>    Dokumen RPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Instrumen penilaian pengetahuan, sikap (karakter), keterampilan </t>
-  </si>
-  <si>
-    <t>    Pelaksanaan penilaian proses dan penilaian hasil belajar</t>
-  </si>
-  <si>
-    <t>    Agenda harian guru</t>
-  </si>
-  <si>
-    <t>    Dokumen penilaian (soal dan skor yang diperoleh) program remedial dan pengayaan</t>
-  </si>
-  <si>
     <t xml:space="preserve">perencanaan kujungan IDUKA; </t>
   </si>
   <si>
@@ -525,75 +483,6 @@
     <t>Evaluasi kujungan IDUKA.</t>
   </si>
   <si>
-    <t> Program kerja TEFA baik berupa bantuan dari pusat maupun mandiri</t>
-  </si>
-  <si>
-    <t> Sinkronisasi kurikulum TEF</t>
-  </si>
-  <si>
-    <t> MOU dengan IDUKA</t>
-  </si>
-  <si>
-    <t> Pembelajaran sistem blok</t>
-  </si>
-  <si>
-    <t> Produk yang dihasilkan</t>
-  </si>
-  <si>
-    <t> POS Unit Produksi</t>
-  </si>
-  <si>
-    <t> Sistem akuntansi dan laporan keuangan</t>
-  </si>
-  <si>
-    <t> Cakupan layanan</t>
-  </si>
-  <si>
-    <t> Unit produksi bagian dari pembelajaran</t>
-  </si>
-  <si>
-    <t>  POS pelaksanaan kelas industri atau kelas kewirausahaan</t>
-  </si>
-  <si>
-    <t>  Program kelas wirausaha dan atau kelas industri</t>
-  </si>
-  <si>
-    <t>  Kurikulum kelas industri (Buku I, II, dan III)</t>
-  </si>
-  <si>
-    <t>  SK  dan uraian tugas pengelola kelas industri dan atau kelas wirausaha</t>
-  </si>
-  <si>
-    <t>  Dokumen sarana dan prasarana kelas industri atau kelas wirausaha</t>
-  </si>
-  <si>
-    <t>  Bukti kerja sama dengan pihak luar sekolah dalam penyelenggaraan kelas khusus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Pelaksanaan pembelajaran dan penilaian di kelas wirausaha atau kelas industri </t>
-  </si>
-  <si>
-    <t>  Bukti evaluasi penyelenggaraan kelas industri atau kelas wirausaha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Rancangan design produk yang akan dihasilkan </t>
-  </si>
-  <si>
-    <t>  Produk yang telah di hasilkan</t>
-  </si>
-  <si>
-    <t>  Kemasan produk</t>
-  </si>
-  <si>
-    <t>  Pengiriman</t>
-  </si>
-  <si>
-    <t>  Kepuasan pelanggan</t>
-  </si>
-  <si>
-    <t>  Keberlanjutan</t>
-  </si>
-  <si>
     <t>Program pengembangan pendidik</t>
   </si>
   <si>
@@ -687,12 +576,6 @@
     <t> Daftar sarana dan prasarana praktik</t>
   </si>
   <si>
-    <t> Daftar sumber pemenuhan sarana dan prasarana praktik berdasar kesepakatan bersama IDUKA</t>
-  </si>
-  <si>
-    <t> Jadwal pemeliharaan sarana dan prasarana praktik</t>
-  </si>
-  <si>
     <t>Daftar pesanan produk dari IDUKA</t>
   </si>
   <si>
@@ -810,43 +693,154 @@
     <t>Laporan kegiatan kerjasama yang dilakukan oleh SDM sekolah dan stakeholders/pihak eksternal</t>
   </si>
   <si>
-    <t> Bukti korespondensi sekolah dengan pihak eksternal</t>
-  </si>
-  <si>
-    <t> MoU atau Naskah kerjasama antara dua pihak sekolah dan pihak eksternal</t>
-  </si>
-  <si>
-    <t> Dokumentasi kegiatan kerjasama</t>
-  </si>
-  <si>
     <t>Rekapitulasi data pendaftar PPDB sekolah di tahun terakhir</t>
   </si>
   <si>
     <t>Dokumen terkait program kegiatan keikutsertaan sekolah dalam program masyarakat</t>
   </si>
   <si>
-    <t> Prosedur mutu (SOP) Pengelolaan Unit Usaha Sekolah</t>
-  </si>
-  <si>
-    <t> Dokumen laporan unit usaha sekolah</t>
-  </si>
-  <si>
-    <t> Dokumen kontribusi unit usaha terhadap pembiayaan sekolah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Dokumen pengelolaan BLUD sekolah </t>
-  </si>
-  <si>
-    <t>    Rencana Strategis Bisnis BLUD</t>
-  </si>
-  <si>
-    <t>    Dokumen SPM Produk/Jasa</t>
-  </si>
-  <si>
-    <t>    Laporan Keuangan/Proyeksi Keuangan</t>
-  </si>
-  <si>
-    <t>    Laporan Audit</t>
+    <t xml:space="preserve">Instrumen penilaian pengetahuan, sikap (karakter), keterampilan </t>
+  </si>
+  <si>
+    <t>Pelaksanaan penilaian proses dan penilaian hasil belajar</t>
+  </si>
+  <si>
+    <t>Dokumen penilaian (soal dan skor yang diperoleh) program remedial dan pengayaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumen pengelolaan BLUD sekolah </t>
+  </si>
+  <si>
+    <t>Rencana Strategis Bisnis BLUD</t>
+  </si>
+  <si>
+    <t>Dokumen SPM Produk/Jasa</t>
+  </si>
+  <si>
+    <t>Laporan Keuangan/Proyeksi Keuangan</t>
+  </si>
+  <si>
+    <t>Laporan Audit</t>
+  </si>
+  <si>
+    <t>Jadwal pemeliharaan sarana dan prasarana praktik</t>
+  </si>
+  <si>
+    <t>Daftar sumber pemenuhan sarana dan prasarana praktik berdasar kesepakatan bersama IDUKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumen kurikulum secara utuh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumen hasil penyelarasan dengan IDUKA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukti keterlibatan IDUKA dalam pengembangan kurikulum. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silabus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program tahunan </t>
+  </si>
+  <si>
+    <t>Program semester</t>
+  </si>
+  <si>
+    <t>Kalender akademik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPP </t>
+  </si>
+  <si>
+    <t>Dokumen pengembangan kurikulum seperti notulen rapat, SK Tim, absensi kegiatan, dsb.</t>
+  </si>
+  <si>
+    <t>POS pelaksanaan kelas industri atau kelas kewirausahaan</t>
+  </si>
+  <si>
+    <t>Program kelas wirausaha dan atau kelas industri</t>
+  </si>
+  <si>
+    <t>Kurikulum kelas industri (Buku I, II, dan III)</t>
+  </si>
+  <si>
+    <t>SK  dan uraian tugas pengelola kelas industri dan atau kelas wirausaha</t>
+  </si>
+  <si>
+    <t>Dokumen sarana dan prasarana kelas industri atau kelas wirausaha</t>
+  </si>
+  <si>
+    <t>Bukti kerja sama dengan pihak luar sekolah dalam penyelenggaraan kelas khusus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelaksanaan pembelajaran dan penilaian di kelas wirausaha atau kelas industri </t>
+  </si>
+  <si>
+    <t>Bukti evaluasi penyelenggaraan kelas industri atau kelas wirausaha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rancangan design produk yang akan dihasilkan </t>
+  </si>
+  <si>
+    <t>Produk yang telah di hasilkan</t>
+  </si>
+  <si>
+    <t>Kemasan produk</t>
+  </si>
+  <si>
+    <t>Pengiriman</t>
+  </si>
+  <si>
+    <t>Kepuasan pelanggan</t>
+  </si>
+  <si>
+    <t>Keberlanjutan</t>
+  </si>
+  <si>
+    <t>Cakupan layanan</t>
+  </si>
+  <si>
+    <t>Sistem akuntansi dan laporan keuangan</t>
+  </si>
+  <si>
+    <t>Program kerja TEFA baik berupa bantuan dari pusat maupun mandiri</t>
+  </si>
+  <si>
+    <t>Sinkronisasi kurikulum TEF</t>
+  </si>
+  <si>
+    <t>MOU dengan IDUKA</t>
+  </si>
+  <si>
+    <t>Pembelajaran sistem blok</t>
+  </si>
+  <si>
+    <t>Produk yang dihasilkan</t>
+  </si>
+  <si>
+    <t>POS Unit Produksi</t>
+  </si>
+  <si>
+    <t>Unit produksi bagian dari pembelajaran</t>
+  </si>
+  <si>
+    <t>Bukti korespondensi sekolah dengan pihak eksternal</t>
+  </si>
+  <si>
+    <t>MoU atau Naskah kerjasama antara dua pihak sekolah dan pihak eksternal</t>
+  </si>
+  <si>
+    <t>Dokumentasi kegiatan kerjasama</t>
+  </si>
+  <si>
+    <t>Prosedur mutu (SOP) Pengelolaan Unit Usaha Sekolah</t>
+  </si>
+  <si>
+    <t>Dokumen laporan unit usaha sekolah</t>
+  </si>
+  <si>
+    <t>Dokumen kontribusi unit usaha terhadap pembiayaan sekolah</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149F5D56-5FEA-47C5-97AD-EDE987F2CF59}">
   <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212:A216"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2006,7 @@
         <v>61</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2023,7 +2017,7 @@
         <v>62</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2034,7 +2028,7 @@
         <v>63</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2045,7 +2039,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2056,7 +2050,7 @@
         <v>65</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2067,7 +2061,7 @@
         <v>66</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2078,7 +2072,7 @@
         <v>67</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>145</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2089,7 +2083,7 @@
         <v>68</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2100,7 +2094,7 @@
         <v>69</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2111,7 +2105,7 @@
         <v>61</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2122,7 +2116,7 @@
         <v>62</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2133,7 +2127,7 @@
         <v>63</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2144,7 +2138,7 @@
         <v>64</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2155,7 +2149,7 @@
         <v>61</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2166,7 +2160,7 @@
         <v>62</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2177,7 +2171,7 @@
         <v>63</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2188,7 +2182,7 @@
         <v>64</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2199,7 +2193,7 @@
         <v>61</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2210,7 +2204,7 @@
         <v>62</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2221,7 +2215,7 @@
         <v>63</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2232,7 +2226,7 @@
         <v>64</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2243,7 +2237,7 @@
         <v>65</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2254,7 +2248,7 @@
         <v>61</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2265,7 +2259,7 @@
         <v>62</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2276,7 +2270,7 @@
         <v>63</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2287,7 +2281,7 @@
         <v>64</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2298,7 +2292,7 @@
         <v>65</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2309,7 +2303,7 @@
         <v>61</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2320,7 +2314,7 @@
         <v>62</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>167</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2331,7 +2325,7 @@
         <v>63</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>168</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2342,7 +2336,7 @@
         <v>64</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>169</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2353,7 +2347,7 @@
         <v>65</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>170</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2364,7 +2358,7 @@
         <v>61</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2375,7 +2369,7 @@
         <v>62</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>172</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2386,7 +2380,7 @@
         <v>63</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2397,7 +2391,7 @@
         <v>64</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>174</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2408,7 +2402,7 @@
         <v>61</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2419,7 +2413,7 @@
         <v>62</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2430,7 +2424,7 @@
         <v>63</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2441,7 +2435,7 @@
         <v>64</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2452,7 +2446,7 @@
         <v>65</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2463,7 +2457,7 @@
         <v>66</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2474,7 +2468,7 @@
         <v>67</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>181</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2485,7 +2479,7 @@
         <v>68</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2496,7 +2490,7 @@
         <v>61</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2507,7 +2501,7 @@
         <v>62</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2518,7 +2512,7 @@
         <v>63</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2529,7 +2523,7 @@
         <v>64</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>186</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2540,7 +2534,7 @@
         <v>65</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2551,7 +2545,7 @@
         <v>66</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,7 +2556,7 @@
         <v>61</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2573,7 +2567,7 @@
         <v>62</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2584,7 +2578,7 @@
         <v>63</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2595,7 +2589,7 @@
         <v>61</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2606,7 +2600,7 @@
         <v>62</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2617,7 +2611,7 @@
         <v>63</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2628,7 +2622,7 @@
         <v>61</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2639,7 +2633,7 @@
         <v>62</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2650,7 +2644,7 @@
         <v>63</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2661,7 +2655,7 @@
         <v>61</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2672,7 +2666,7 @@
         <v>62</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2683,7 +2677,7 @@
         <v>63</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2694,7 +2688,7 @@
         <v>64</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2705,7 +2699,7 @@
         <v>65</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2716,7 +2710,7 @@
         <v>66</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2727,7 +2721,7 @@
         <v>61</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2738,7 +2732,7 @@
         <v>62</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2749,7 +2743,7 @@
         <v>63</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2760,7 +2754,7 @@
         <v>64</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2771,7 +2765,7 @@
         <v>65</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2782,7 +2776,7 @@
         <v>61</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2793,7 +2787,7 @@
         <v>62</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2804,7 +2798,7 @@
         <v>63</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2815,7 +2809,7 @@
         <v>64</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2826,7 +2820,7 @@
         <v>65</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2837,7 +2831,7 @@
         <v>66</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2848,7 +2842,7 @@
         <v>67</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2859,7 +2853,7 @@
         <v>61</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2870,7 +2864,7 @@
         <v>62</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2881,7 +2875,7 @@
         <v>63</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2892,7 +2886,7 @@
         <v>64</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2903,7 +2897,7 @@
         <v>65</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2914,7 +2908,7 @@
         <v>66</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2925,7 +2919,7 @@
         <v>67</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2936,7 +2930,7 @@
         <v>61</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2947,7 +2941,7 @@
         <v>62</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2958,7 +2952,7 @@
         <v>63</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2969,7 +2963,7 @@
         <v>61</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2980,7 +2974,7 @@
         <v>62</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2991,7 +2985,7 @@
         <v>63</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3002,7 +2996,7 @@
         <v>64</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3013,7 +3007,7 @@
         <v>61</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3024,7 +3018,7 @@
         <v>62</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3035,7 +3029,7 @@
         <v>63</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3090,7 +3084,7 @@
         <v>61</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3101,7 +3095,7 @@
         <v>62</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3112,7 +3106,7 @@
         <v>63</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3123,7 +3117,7 @@
         <v>64</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3134,7 +3128,7 @@
         <v>61</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3145,7 +3139,7 @@
         <v>62</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3156,7 +3150,7 @@
         <v>61</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3167,7 +3161,7 @@
         <v>62</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3178,7 +3172,7 @@
         <v>63</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3189,7 +3183,7 @@
         <v>61</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3200,7 +3194,7 @@
         <v>62</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3211,7 +3205,7 @@
         <v>63</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3222,7 +3216,7 @@
         <v>61</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3233,7 +3227,7 @@
         <v>62</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3244,7 +3238,7 @@
         <v>63</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3255,7 +3249,7 @@
         <v>64</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3266,7 +3260,7 @@
         <v>61</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3277,7 +3271,7 @@
         <v>62</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3288,7 +3282,7 @@
         <v>61</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3299,7 +3293,7 @@
         <v>62</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3310,7 +3304,7 @@
         <v>63</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3321,7 +3315,7 @@
         <v>61</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -3332,7 +3326,7 @@
         <v>62</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -3343,7 +3337,7 @@
         <v>63</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -3354,7 +3348,7 @@
         <v>64</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3365,7 +3359,7 @@
         <v>61</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3376,7 +3370,7 @@
         <v>62</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -3387,7 +3381,7 @@
         <v>63</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -3398,7 +3392,7 @@
         <v>64</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3409,7 +3403,7 @@
         <v>61</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3420,7 +3414,7 @@
         <v>62</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3431,7 +3425,7 @@
         <v>61</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3442,7 +3436,7 @@
         <v>62</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3453,7 +3447,7 @@
         <v>61</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3464,7 +3458,7 @@
         <v>61</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3475,7 +3469,7 @@
         <v>62</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3486,7 +3480,7 @@
         <v>61</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3497,7 +3491,7 @@
         <v>62</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3508,7 +3502,7 @@
         <v>63</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3519,7 +3513,7 @@
         <v>61</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3530,7 +3524,7 @@
         <v>61</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3541,7 +3535,7 @@
         <v>61</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3552,7 +3546,7 @@
         <v>62</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3563,7 +3557,7 @@
         <v>63</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3574,7 +3568,7 @@
         <v>61</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3585,7 +3579,7 @@
         <v>62</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3596,7 +3590,7 @@
         <v>63</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3607,7 +3601,7 @@
         <v>64</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3618,7 +3612,7 @@
         <v>65</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/public/template_telaah_dokumen.xlsx
+++ b/public/template_telaah_dokumen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503F512D-9C4C-48E7-9F72-42097E575442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68EE3A4-ACD7-4D0F-8C21-B36DD3D9CDA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{D087BDC3-BE76-4C30-B0D8-13880E915C35}"/>
   </bookViews>
@@ -708,12 +708,6 @@
     <t>Dokumen penilaian (soal dan skor yang diperoleh) program remedial dan pengayaan</t>
   </si>
   <si>
-    <t xml:space="preserve">Dokumen pengelolaan BLUD sekolah </t>
-  </si>
-  <si>
-    <t>Rencana Strategis Bisnis BLUD</t>
-  </si>
-  <si>
     <t>Dokumen SPM Produk/Jasa</t>
   </si>
   <si>
@@ -841,6 +835,12 @@
   </si>
   <si>
     <t>Dokumen kontribusi unit usaha terhadap pembiayaan sekolah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumen pengelolaan BLUD/Unit Produksi sekolah </t>
+  </si>
+  <si>
+    <t>Rencana Strategis Bisnis BLUD/Unit Produksi</t>
   </si>
 </sst>
 </file>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149F5D56-5FEA-47C5-97AD-EDE987F2CF59}">
   <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,7 +2006,7 @@
         <v>61</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2017,7 +2017,7 @@
         <v>62</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2028,7 +2028,7 @@
         <v>63</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2039,7 +2039,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2050,7 +2050,7 @@
         <v>65</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2061,7 +2061,7 @@
         <v>66</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>67</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2083,7 +2083,7 @@
         <v>68</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2094,7 +2094,7 @@
         <v>69</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2303,7 +2303,7 @@
         <v>61</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2314,7 +2314,7 @@
         <v>62</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2325,7 +2325,7 @@
         <v>63</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>64</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2347,7 +2347,7 @@
         <v>65</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2358,7 +2358,7 @@
         <v>61</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2369,7 +2369,7 @@
         <v>62</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2380,7 +2380,7 @@
         <v>63</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2391,7 +2391,7 @@
         <v>64</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2402,7 +2402,7 @@
         <v>61</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
         <v>62</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2424,7 +2424,7 @@
         <v>63</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2435,7 +2435,7 @@
         <v>64</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2446,7 +2446,7 @@
         <v>65</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2457,7 +2457,7 @@
         <v>66</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2468,7 +2468,7 @@
         <v>67</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2479,7 +2479,7 @@
         <v>68</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2490,7 +2490,7 @@
         <v>61</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2501,7 +2501,7 @@
         <v>62</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2512,7 +2512,7 @@
         <v>63</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2523,7 +2523,7 @@
         <v>64</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2534,7 +2534,7 @@
         <v>65</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2545,7 +2545,7 @@
         <v>66</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2941,7 +2941,7 @@
         <v>62</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2952,7 +2952,7 @@
         <v>63</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3480,7 +3480,7 @@
         <v>61</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3491,7 +3491,7 @@
         <v>62</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3502,7 +3502,7 @@
         <v>63</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
         <v>61</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3546,7 +3546,7 @@
         <v>62</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3557,7 +3557,7 @@
         <v>63</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3568,7 +3568,7 @@
         <v>61</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3579,7 +3579,7 @@
         <v>62</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3590,7 +3590,7 @@
         <v>63</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3601,7 +3601,7 @@
         <v>64</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3612,7 +3612,7 @@
         <v>65</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/public/template_telaah_dokumen.xlsx
+++ b/public/template_telaah_dokumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68EE3A4-ACD7-4D0F-8C21-B36DD3D9CDA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE34BE2D-8920-4146-8B25-EA18AC106F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{D087BDC3-BE76-4C30-B0D8-13880E915C35}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="274">
   <si>
     <t>instrumen_id</t>
   </si>
@@ -841,6 +841,12 @@
   </si>
   <si>
     <t>Rencana Strategis Bisnis BLUD/Unit Produksi</t>
+  </si>
+  <si>
+    <t>Analisis data penjurusan berdasarkan prestasi akademis</t>
+  </si>
+  <si>
+    <t>a8b56aa6-fb12-4c2a-8f3b-f64ddc349385</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149F5D56-5FEA-47C5-97AD-EDE987F2CF59}">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,26 +1333,26 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>62</v>
+      <c r="B10" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1354,10 +1360,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,10 +1371,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,32 +1382,32 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>62</v>
+      <c r="B15" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,32 +1415,32 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>62</v>
+      <c r="B18" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,10 +1448,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1453,32 +1459,32 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>62</v>
+      <c r="B22" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,10 +1492,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,32 +1503,32 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>62</v>
+      <c r="B26" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1530,32 +1536,32 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>62</v>
+      <c r="B29" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1563,10 +1569,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1574,54 +1580,54 @@
         <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>62</v>
+      <c r="B33" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>62</v>
+      <c r="B35" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1629,32 +1635,32 @@
         <v>10</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>62</v>
+      <c r="B38" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1662,32 +1668,32 @@
         <v>11</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>62</v>
+      <c r="B41" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1695,10 +1701,10 @@
         <v>12</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1706,32 +1712,32 @@
         <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>62</v>
+      <c r="B45" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1739,32 +1745,32 @@
         <v>13</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>62</v>
+      <c r="B48" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1772,10 +1778,10 @@
         <v>14</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1783,32 +1789,32 @@
         <v>14</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>62</v>
+      <c r="B52" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1816,10 +1822,10 @@
         <v>15</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1827,10 +1833,10 @@
         <v>15</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1838,54 +1844,54 @@
         <v>15</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>62</v>
+      <c r="B57" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>62</v>
+      <c r="B59" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1893,32 +1899,32 @@
         <v>17</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>62</v>
+      <c r="B62" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1926,32 +1932,32 @@
         <v>18</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>62</v>
+      <c r="B65" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1959,32 +1965,32 @@
         <v>19</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>62</v>
+      <c r="B68" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1992,32 +1998,32 @@
         <v>20</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>62</v>
+      <c r="B71" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2025,10 +2031,10 @@
         <v>21</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2036,10 +2042,10 @@
         <v>21</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2047,10 +2053,10 @@
         <v>21</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2058,10 +2064,10 @@
         <v>21</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2069,10 +2075,10 @@
         <v>21</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2080,10 +2086,10 @@
         <v>21</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2091,32 +2097,32 @@
         <v>21</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>62</v>
+      <c r="B80" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,10 +2130,10 @@
         <v>22</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2135,32 +2141,32 @@
         <v>22</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>62</v>
+      <c r="B84" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2168,10 +2174,10 @@
         <v>23</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2179,32 +2185,32 @@
         <v>23</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>62</v>
+      <c r="B88" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2212,10 +2218,10 @@
         <v>24</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2223,10 +2229,10 @@
         <v>24</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2234,32 +2240,32 @@
         <v>24</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>62</v>
+      <c r="B93" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2267,10 +2273,10 @@
         <v>25</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2278,10 +2284,10 @@
         <v>25</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2289,32 +2295,32 @@
         <v>25</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>62</v>
+      <c r="B98" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2322,10 +2328,10 @@
         <v>26</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2333,10 +2339,10 @@
         <v>26</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2344,32 +2350,32 @@
         <v>26</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>62</v>
+      <c r="B103" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2377,10 +2383,10 @@
         <v>27</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2388,32 +2394,32 @@
         <v>27</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>62</v>
+      <c r="B107" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2421,10 +2427,10 @@
         <v>28</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2432,10 +2438,10 @@
         <v>28</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2443,10 +2449,10 @@
         <v>28</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2454,10 +2460,10 @@
         <v>28</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2465,10 +2471,10 @@
         <v>28</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2476,32 +2482,32 @@
         <v>28</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>62</v>
+      <c r="B115" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2509,10 +2515,10 @@
         <v>29</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2520,10 +2526,10 @@
         <v>29</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2531,10 +2537,10 @@
         <v>29</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2542,32 +2548,32 @@
         <v>29</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>62</v>
+      <c r="B121" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2575,32 +2581,32 @@
         <v>30</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>62</v>
+      <c r="B124" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2608,32 +2614,32 @@
         <v>31</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>62</v>
+      <c r="B127" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2641,32 +2647,32 @@
         <v>32</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C128" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>62</v>
+      <c r="B130" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2674,10 +2680,10 @@
         <v>33</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2685,10 +2691,10 @@
         <v>33</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2696,10 +2702,10 @@
         <v>33</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2707,32 +2713,32 @@
         <v>33</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C135" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>62</v>
+      <c r="B136" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2740,10 +2746,10 @@
         <v>34</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2751,10 +2757,10 @@
         <v>34</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2762,32 +2768,32 @@
         <v>34</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>62</v>
+      <c r="B141" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2795,10 +2801,10 @@
         <v>35</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2806,10 +2812,10 @@
         <v>35</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2817,10 +2823,10 @@
         <v>35</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2828,10 +2834,10 @@
         <v>35</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2839,32 +2845,32 @@
         <v>35</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>62</v>
+      <c r="B148" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2872,10 +2878,10 @@
         <v>36</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2883,10 +2889,10 @@
         <v>36</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2894,10 +2900,10 @@
         <v>36</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2905,10 +2911,10 @@
         <v>36</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2916,32 +2922,32 @@
         <v>36</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>62</v>
+      <c r="B155" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2949,32 +2955,32 @@
         <v>37</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C156" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>62</v>
+      <c r="B158" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2982,10 +2988,10 @@
         <v>38</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2993,32 +2999,32 @@
         <v>38</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C161" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>62</v>
+      <c r="B162" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3026,32 +3032,32 @@
         <v>39</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C163" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>62</v>
+      <c r="B165" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3059,10 +3065,10 @@
         <v>40</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3070,32 +3076,32 @@
         <v>40</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C168" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>62</v>
+      <c r="B169" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3103,10 +3109,10 @@
         <v>41</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3114,54 +3120,54 @@
         <v>41</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C172" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>62</v>
+      <c r="B173" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C173" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>62</v>
+      <c r="B175" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3169,32 +3175,32 @@
         <v>43</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C176" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B178" s="3" t="s">
-        <v>62</v>
+      <c r="B178" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3202,32 +3208,32 @@
         <v>44</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C179" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B181" s="3" t="s">
-        <v>62</v>
+      <c r="B181" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3235,10 +3241,10 @@
         <v>45</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3246,54 +3252,54 @@
         <v>45</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>62</v>
+      <c r="B185" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C185" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>62</v>
+      <c r="B187" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3301,32 +3307,32 @@
         <v>47</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C188" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>62</v>
+      <c r="B190" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -3334,10 +3340,10 @@
         <v>48</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -3345,32 +3351,32 @@
         <v>48</v>
       </c>
       <c r="B192" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C193" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>62</v>
+      <c r="B194" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -3378,10 +3384,10 @@
         <v>49</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -3389,109 +3395,109 @@
         <v>49</v>
       </c>
       <c r="B196" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C197" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>62</v>
+      <c r="B198" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>62</v>
+      <c r="B200" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B201" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C201" s="3" t="s">
+      <c r="B202" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>62</v>
+      <c r="B203" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C203" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>62</v>
+      <c r="B205" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3499,54 +3505,54 @@
         <v>54</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C208" s="3" t="s">
+      <c r="B209" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B210" s="3" t="s">
-        <v>62</v>
+      <c r="B210" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3554,32 +3560,32 @@
         <v>57</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C211" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B213" s="5" t="s">
-        <v>62</v>
+      <c r="B213" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3587,21 +3593,21 @@
         <v>58</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>64</v>
+      <c r="B215" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3609,9 +3615,20 @@
         <v>58</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C217" s="3" t="s">
         <v>229</v>
       </c>
     </row>

--- a/public/template_telaah_dokumen.xlsx
+++ b/public/template_telaah_dokumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE34BE2D-8920-4146-8B25-EA18AC106F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C850012-1C57-4F44-A4FA-334753829A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{D087BDC3-BE76-4C30-B0D8-13880E915C35}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="273">
   <si>
     <t>instrumen_id</t>
   </si>
@@ -844,9 +844,6 @@
   </si>
   <si>
     <t>Analisis data penjurusan berdasarkan prestasi akademis</t>
-  </si>
-  <si>
-    <t>a8b56aa6-fb12-4c2a-8f3b-f64ddc349385</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1231,7 @@
   <dimension ref="A1:C217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>273</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3">
         <v>4</v>
